--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H2">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>9.030288664725001</v>
+        <v>9.008031157502002</v>
       </c>
       <c r="R2">
-        <v>81.272597982525</v>
+        <v>81.072280417518</v>
       </c>
       <c r="S2">
-        <v>0.002115759557553961</v>
+        <v>0.001668547832370937</v>
       </c>
       <c r="T2">
-        <v>0.002115759557553962</v>
+        <v>0.001668547832370938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H3">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>64.45176677557501</v>
+        <v>35.42124579080822</v>
       </c>
       <c r="R3">
-        <v>580.065900980175</v>
+        <v>318.791212117274</v>
       </c>
       <c r="S3">
-        <v>0.01510078432922547</v>
+        <v>0.006561038905256265</v>
       </c>
       <c r="T3">
-        <v>0.01510078432922547</v>
+        <v>0.006561038905256266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H4">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>63.02765570805001</v>
+        <v>32.78559600740667</v>
       </c>
       <c r="R4">
-        <v>567.2489013724501</v>
+        <v>295.07036406666</v>
       </c>
       <c r="S4">
-        <v>0.01476712095322461</v>
+        <v>0.006072840357083934</v>
       </c>
       <c r="T4">
-        <v>0.01476712095322462</v>
+        <v>0.006072840357083936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H5">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>18.3847725507</v>
+        <v>8.515675389823334</v>
       </c>
       <c r="R5">
-        <v>165.4629529563</v>
+        <v>76.64107850841</v>
       </c>
       <c r="S5">
-        <v>0.004307476724364913</v>
+        <v>0.001577349308015102</v>
       </c>
       <c r="T5">
-        <v>0.004307476724364914</v>
+        <v>0.001577349308015102</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H6">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I6">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J6">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>27.360662993925</v>
+        <v>16.40843346534022</v>
       </c>
       <c r="R6">
-        <v>246.245966945325</v>
+        <v>147.675901188062</v>
       </c>
       <c r="S6">
-        <v>0.006410491001969835</v>
+        <v>0.003039316318127433</v>
       </c>
       <c r="T6">
-        <v>0.006410491001969836</v>
+        <v>0.003039316318127433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H7">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I7">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J7">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>72.02074867837501</v>
+        <v>44.45952630491378</v>
       </c>
       <c r="R7">
-        <v>648.1867381053751</v>
+        <v>400.135736744224</v>
       </c>
       <c r="S7">
-        <v>0.01687416571229887</v>
+        <v>0.008235189793112802</v>
       </c>
       <c r="T7">
-        <v>0.01687416571229888</v>
+        <v>0.008235189793112802</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.828211</v>
       </c>
       <c r="I8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>2.761020906240111</v>
+        <v>5.011513871321001</v>
       </c>
       <c r="R8">
-        <v>24.849188156161</v>
+        <v>45.103624841889</v>
       </c>
       <c r="S8">
-        <v>0.0006468958621226657</v>
+        <v>0.0009282772739885124</v>
       </c>
       <c r="T8">
-        <v>0.0006468958621226658</v>
+        <v>0.0009282772739885124</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.828211</v>
       </c>
       <c r="I9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>19.70620011369189</v>
@@ -1013,10 +1013,10 @@
         <v>177.355801023227</v>
       </c>
       <c r="S9">
-        <v>0.004617081776851955</v>
+        <v>0.003650158054414037</v>
       </c>
       <c r="T9">
-        <v>0.004617081776851956</v>
+        <v>0.003650158054414037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.828211</v>
       </c>
       <c r="I10">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J10">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>19.27077655457533</v>
+        <v>18.23988686293667</v>
       </c>
       <c r="R10">
-        <v>173.436988991178</v>
+        <v>164.15898176643</v>
       </c>
       <c r="S10">
-        <v>0.004515063824714533</v>
+        <v>0.003378554442776122</v>
       </c>
       <c r="T10">
-        <v>0.004515063824714534</v>
+        <v>0.003378554442776122</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.828211</v>
       </c>
       <c r="I11">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J11">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>5.621164865663556</v>
+        <v>4.737597438728335</v>
       </c>
       <c r="R11">
-        <v>50.590483790972</v>
+        <v>42.63837694855501</v>
       </c>
       <c r="S11">
-        <v>0.001317015848626404</v>
+        <v>0.0008775400305374123</v>
       </c>
       <c r="T11">
-        <v>0.001317015848626405</v>
+        <v>0.0008775400305374122</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.828211</v>
       </c>
       <c r="I12">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J12">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>8.365553454554778</v>
+        <v>9.12864203957789</v>
       </c>
       <c r="R12">
-        <v>75.289981090993</v>
+        <v>82.15777835620099</v>
       </c>
       <c r="S12">
-        <v>0.001960014827083253</v>
+        <v>0.001690888455125164</v>
       </c>
       <c r="T12">
-        <v>0.001960014827083253</v>
+        <v>0.001690888455125164</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.828211</v>
       </c>
       <c r="I13">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J13">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>22.02042483545723</v>
+        <v>24.73454286443911</v>
       </c>
       <c r="R13">
-        <v>198.183823519115</v>
+        <v>222.610885779952</v>
       </c>
       <c r="S13">
-        <v>0.005159295127409533</v>
+        <v>0.004581552523469584</v>
       </c>
       <c r="T13">
-        <v>0.005159295127409536</v>
+        <v>0.004581552523469583</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H14">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I14">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J14">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>4.986146840452444</v>
+        <v>18.188879189164</v>
       </c>
       <c r="R14">
-        <v>44.875321564072</v>
+        <v>163.699912702476</v>
       </c>
       <c r="S14">
-        <v>0.001168233732578693</v>
+        <v>0.003369106346736091</v>
       </c>
       <c r="T14">
-        <v>0.001168233732578693</v>
+        <v>0.003369106346736091</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H15">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I15">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J15">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>35.58756372041155</v>
+        <v>71.52203951716311</v>
       </c>
       <c r="R15">
-        <v>320.288073483704</v>
+        <v>643.6983556544679</v>
       </c>
       <c r="S15">
-        <v>0.008338020064147562</v>
+        <v>0.01324794973691059</v>
       </c>
       <c r="T15">
-        <v>0.008338020064147566</v>
+        <v>0.01324794973691059</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H16">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I16">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J16">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>34.80122928931733</v>
+        <v>66.20017565401334</v>
       </c>
       <c r="R16">
-        <v>313.211063603856</v>
+        <v>595.8015808861201</v>
       </c>
       <c r="S16">
-        <v>0.008153785135476871</v>
+        <v>0.01226218667084519</v>
       </c>
       <c r="T16">
-        <v>0.008153785135476875</v>
+        <v>0.0122621866708452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H17">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I17">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J17">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>10.15130069143822</v>
+        <v>17.19472192884667</v>
       </c>
       <c r="R17">
-        <v>91.36170622294401</v>
+        <v>154.75249735962</v>
       </c>
       <c r="S17">
-        <v>0.002378408072757729</v>
+        <v>0.003184959676644165</v>
       </c>
       <c r="T17">
-        <v>0.00237840807275773</v>
+        <v>0.003184959676644165</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H18">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I18">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J18">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>15.10741111441511</v>
+        <v>33.13165871278711</v>
       </c>
       <c r="R18">
-        <v>135.966700029736</v>
+        <v>298.184928415084</v>
       </c>
       <c r="S18">
-        <v>0.003539604396045528</v>
+        <v>0.006136941176323006</v>
       </c>
       <c r="T18">
-        <v>0.003539604396045529</v>
+        <v>0.006136941176323006</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H19">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I19">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J19">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>39.76683822660889</v>
+        <v>89.7719977460409</v>
       </c>
       <c r="R19">
-        <v>357.90154403948</v>
+        <v>807.947979714368</v>
       </c>
       <c r="S19">
-        <v>0.009317206921669565</v>
+        <v>0.01662836968786672</v>
       </c>
       <c r="T19">
-        <v>0.009317206921669569</v>
+        <v>0.01662836968786672</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H20">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I20">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J20">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>1.747601009246667</v>
+        <v>0.8141453770170001</v>
       </c>
       <c r="R20">
-        <v>15.72840908322</v>
+        <v>7.327308393153</v>
       </c>
       <c r="S20">
-        <v>0.0004094557411600955</v>
+        <v>0.0001508032643654001</v>
       </c>
       <c r="T20">
-        <v>0.0004094557411600955</v>
+        <v>0.0001508032643654001</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H21">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I21">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J21">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>12.47313090939333</v>
+        <v>3.201370311064333</v>
       </c>
       <c r="R21">
-        <v>112.25817818454</v>
+        <v>28.812332799579</v>
       </c>
       <c r="S21">
-        <v>0.002922403359845899</v>
+        <v>0.0005929863473767498</v>
       </c>
       <c r="T21">
-        <v>0.0029224033598459</v>
+        <v>0.0005929863473767499</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H22">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I22">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J22">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>12.19752754484</v>
+        <v>2.96316042379</v>
       </c>
       <c r="R22">
-        <v>109.77774790356</v>
+        <v>26.66844381411</v>
       </c>
       <c r="S22">
-        <v>0.002857830623104321</v>
+        <v>0.0005488629885526742</v>
       </c>
       <c r="T22">
-        <v>0.002857830623104322</v>
+        <v>0.0005488629885526743</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H23">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I23">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J23">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>3.557942415493333</v>
+        <v>0.7696462889150001</v>
       </c>
       <c r="R23">
-        <v>32.02148173944</v>
+        <v>6.926816600235</v>
       </c>
       <c r="S23">
-        <v>0.0008336112997375472</v>
+        <v>0.0001425607465835605</v>
       </c>
       <c r="T23">
-        <v>0.0008336112997375473</v>
+        <v>0.0001425607465835605</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H24">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I24">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J24">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>5.295015922206667</v>
+        <v>1.482993344086333</v>
       </c>
       <c r="R24">
-        <v>47.65514329986</v>
+        <v>13.346940096777</v>
       </c>
       <c r="S24">
-        <v>0.00124060049027794</v>
+        <v>0.0002746932472180706</v>
       </c>
       <c r="T24">
-        <v>0.00124060049027794</v>
+        <v>0.0002746932472180706</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H25">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I25">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J25">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>13.93793019803334</v>
+        <v>4.018249623322667</v>
       </c>
       <c r="R25">
-        <v>125.4413717823</v>
+        <v>36.164246609904</v>
       </c>
       <c r="S25">
-        <v>0.003265599818996156</v>
+        <v>0.0007442960155989983</v>
       </c>
       <c r="T25">
-        <v>0.003265599818996157</v>
+        <v>0.0007442960155989983</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H26">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I26">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J26">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>126.6903386023589</v>
+        <v>292.271225635442</v>
       </c>
       <c r="R26">
-        <v>1140.21304742123</v>
+        <v>2630.441030718978</v>
       </c>
       <c r="S26">
-        <v>0.02968302616889282</v>
+        <v>0.05413708184082795</v>
       </c>
       <c r="T26">
-        <v>0.02968302616889282</v>
+        <v>0.05413708184082795</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H27">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I27">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J27">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>904.2253752324011</v>
+        <v>1149.264555128895</v>
       </c>
       <c r="R27">
-        <v>8138.02837709161</v>
+        <v>10343.38099616005</v>
       </c>
       <c r="S27">
-        <v>0.211856292845211</v>
+        <v>0.2128770259285863</v>
       </c>
       <c r="T27">
-        <v>0.2118562928452111</v>
+        <v>0.2128770259285864</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H28">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I28">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J28">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>884.2458241847266</v>
+        <v>1063.749243395207</v>
       </c>
       <c r="R28">
-        <v>7958.21241766254</v>
+        <v>9573.743190556859</v>
       </c>
       <c r="S28">
-        <v>0.2071751660668522</v>
+        <v>0.197037117569817</v>
       </c>
       <c r="T28">
-        <v>0.2071751660668523</v>
+        <v>0.1970371175698171</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H29">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I29">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J29">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>257.9289706068844</v>
+        <v>276.2964336801234</v>
       </c>
       <c r="R29">
-        <v>2321.36073546196</v>
+        <v>2486.66790312111</v>
       </c>
       <c r="S29">
-        <v>0.06043169880751417</v>
+        <v>0.05117808846884951</v>
       </c>
       <c r="T29">
-        <v>0.06043169880751417</v>
+        <v>0.05117808846884951</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H30">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I30">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J30">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>383.8561299403323</v>
+        <v>532.3819240654669</v>
       </c>
       <c r="R30">
-        <v>3454.70516946299</v>
+        <v>4791.437316589201</v>
       </c>
       <c r="S30">
-        <v>0.08993591520716525</v>
+        <v>0.09861252585179088</v>
       </c>
       <c r="T30">
-        <v>0.08993591520716526</v>
+        <v>0.09861252585179088</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>12.66757666666667</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H31">
-        <v>38.00273</v>
+        <v>48.301222</v>
       </c>
       <c r="I31">
-        <v>0.8358180271589674</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J31">
-        <v>0.8358180271589675</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>1010.414326188828</v>
+        <v>1442.517240128167</v>
       </c>
       <c r="R31">
-        <v>9093.72893569945</v>
+        <v>12982.6551611535</v>
       </c>
       <c r="S31">
-        <v>0.2367359280633318</v>
+        <v>0.2671959024219245</v>
       </c>
       <c r="T31">
-        <v>0.2367359280633319</v>
+        <v>0.2671959024219245</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H32">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I32">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J32">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N32">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q32">
-        <v>6.361064983677778</v>
+        <v>6.441398025676</v>
       </c>
       <c r="R32">
-        <v>57.2495848531</v>
+        <v>57.972582231084</v>
       </c>
       <c r="S32">
-        <v>0.001490371408392618</v>
+        <v>0.001193133163646891</v>
       </c>
       <c r="T32">
-        <v>0.001490371408392618</v>
+        <v>0.001193133163646891</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H33">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I33">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J33">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P33">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q33">
-        <v>45.40074985352222</v>
+        <v>25.32876926317911</v>
       </c>
       <c r="R33">
-        <v>408.6067486817</v>
+        <v>227.958923368612</v>
       </c>
       <c r="S33">
-        <v>0.01063720928412109</v>
+        <v>0.004691620434228248</v>
       </c>
       <c r="T33">
-        <v>0.0106372092841211</v>
+        <v>0.004691620434228249</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H34">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I34">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J34">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N34">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q34">
-        <v>44.39758557153333</v>
+        <v>23.44408780345334</v>
       </c>
       <c r="R34">
-        <v>399.5782701438</v>
+        <v>210.99679023108</v>
       </c>
       <c r="S34">
-        <v>0.01040217201164655</v>
+        <v>0.004342522933414632</v>
       </c>
       <c r="T34">
-        <v>0.01040217201164655</v>
+        <v>0.004342522933414633</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H35">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I35">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J35">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N35">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q35">
-        <v>12.95049773568889</v>
+        <v>6.089327810286668</v>
       </c>
       <c r="R35">
-        <v>116.5544796212</v>
+        <v>54.80395029258001</v>
       </c>
       <c r="S35">
-        <v>0.003034248447272546</v>
+        <v>0.001127919579850502</v>
       </c>
       <c r="T35">
-        <v>0.003034248447272546</v>
+        <v>0.001127919579850502</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H36">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I36">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J36">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N36">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q36">
-        <v>19.27324383114444</v>
+        <v>11.73322439499511</v>
       </c>
       <c r="R36">
-        <v>173.4591944803</v>
+        <v>105.599019554956</v>
       </c>
       <c r="S36">
-        <v>0.004515641897484523</v>
+        <v>0.002173332417338117</v>
       </c>
       <c r="T36">
-        <v>0.004515641897484524</v>
+        <v>0.002173332417338117</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.6360333333333333</v>
+        <v>0.3548386666666667</v>
       </c>
       <c r="H37">
-        <v>1.9081</v>
+        <v>1.064516</v>
       </c>
       <c r="I37">
-        <v>0.04196604763978866</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="J37">
-        <v>0.04196604763978867</v>
+        <v>0.0194172887189054</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q37">
-        <v>50.73244937405556</v>
+        <v>31.79179778085689</v>
       </c>
       <c r="R37">
-        <v>456.5920443665001</v>
+        <v>286.126180027712</v>
       </c>
       <c r="S37">
-        <v>0.01188640459087132</v>
+        <v>0.005888760190427013</v>
       </c>
       <c r="T37">
-        <v>0.01188640459087133</v>
+        <v>0.005888760190427013</v>
       </c>
     </row>
   </sheetData>
